--- a/ValueSet-research-data-access-code-vs.xlsx
+++ b/ValueSet-research-data-access-code-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T19:43:16+00:00</t>
+    <t>2024-01-03T18:03:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-research-data-access-code-vs.xlsx
+++ b/ValueSet-research-data-access-code-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-03T18:03:54+00:00</t>
+    <t>2024-01-03T22:56:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-research-data-access-code-vs.xlsx
+++ b/ValueSet-research-data-access-code-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-03T22:56:43+00:00</t>
+    <t>2024-03-11T22:11:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,7 +105,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>https://nih-ncpi.github.ioo/ncpi-fhir-ig-2/CodeSystem/data-access-code</t>
+    <t>https://nih-ncpi.github.io/ncpi-fhir-ig-2/CodeSystem/research-data-access-code</t>
   </si>
 </sst>
 </file>

--- a/ValueSet-research-data-access-code-vs.xlsx
+++ b/ValueSet-research-data-access-code-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-11T22:11:27+00:00</t>
+    <t>2024-03-15T21:50:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-research-data-access-code-vs.xlsx
+++ b/ValueSet-research-data-access-code-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-15T21:50:53+00:00</t>
+    <t>2024-03-18T15:37:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-research-data-access-code-vs.xlsx
+++ b/ValueSet-research-data-access-code-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T15:37:44+00:00</t>
+    <t>2024-03-18T15:48:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-research-data-access-code-vs.xlsx
+++ b/ValueSet-research-data-access-code-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T15:48:54+00:00</t>
+    <t>2024-03-21T20:04:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
